--- a/Appendix 5 - tables - Results w Lower Upper Bounds.xlsx
+++ b/Appendix 5 - tables - Results w Lower Upper Bounds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Dropbox (IFPRI)\RTI-EPA-CO2-Micronutrients\Supplementary material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Documents\GitHub\Mid-century-eCO2-fx-protein-iron-zinc\Mid-century-eCO2-fx-protein-iron-zinc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C9C3D-2E2E-49CE-A445-524FD41B86FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509F5C5-D43E-45E9-9CDC-AC41C13B6D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8FAD90C4-200B-408F-A912-631E25B5594F}"/>
   </bookViews>
@@ -1356,17 +1356,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB6516-547E-4F07-AEE4-7C6130BDA026}">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>177</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1396,7 +1396,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="22">
         <v>2010</v>
@@ -1419,7 +1419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>109.344076556582</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1459,7 +1459,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>131.30320467864399</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>135.64600504617201</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>69.7975866986406</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>151.13315284707201</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>133.607167235497</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>101.565339665209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>115.29846119272</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>80.767085048982807</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>129.789013442646</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>159.284306717833</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>188.75375428522901</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>128.36545840560001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>62.165920927848603</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>62.393469491403103</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>88.721070644803902</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>129.08104446584801</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>54.892993918801999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>84.407057345982395</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>76.093321036766895</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>125.007632899529</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>91.745214984129504</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>82.841008956007002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>106.905593509658</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>103.409779190683</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2166,7 +2166,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>132.159190653845</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>137.36034187508599</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>134.07641299218901</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>133.5344210817</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>124.235358389525</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>121.960639329201</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>109.09760324795199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>94.201975478086894</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>133.05694629919299</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>150.210145889579</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>128.437298978884</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>132.76123378785999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>120.56380306831601</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>152.85146687893999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>128.58321384071101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>117.219529282404</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>141.70330565727599</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>148.18003923710299</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>122.865458066695</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>124.91223864148201</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>77.054434948189396</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>135.088366832128</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>143.28676212066</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>150.47611489808301</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>111.984385403191</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>135.577056862609</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>138.252148478571</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>133.00500822353399</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>119.538732914424</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>134.97942498948399</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -3047,7 +3047,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>127.58267129886499</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>127.150673555669</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>131.36007476080599</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>126.255405906384</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>135.22641924754001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>152.604362667375</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>129.16109852769901</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>121.829438602294</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>128.61721325175901</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>101.87544247877</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>151.920651891727</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>123.022270326582</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>118.537941669745</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3435,7 +3435,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>109.19605447571</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>128.175113755582</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>98.545955714826903</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>99.101760504218504</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>128.53831004373001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>123.095801367322</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>82.0015731785995</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>96.030055406061706</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>98.788962652940995</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>80.945890971645298</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>87.981199357684204</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>87.298145103378204</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>84.1899844983012</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>70.005398241268693</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>57.0817741962246</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>86.781582784186696</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>114.25722825713601</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>115.39356717080599</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>77.840856995861301</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>115.88917843893699</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>101.030963914376</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>94.686275837274707</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>88.266552165906802</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>120.214732277773</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>85.521978308894106</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -4171,7 +4171,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>120.69344517344901</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>119.721289820042</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>136.955073950268</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>117.528195641438</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>73.079672175366397</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>177.07646456237401</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>120.909406090198</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>139.07692177256399</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>128.70531403396299</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>110.154765511319</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>132.13345338881999</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>147.36455243714599</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>105</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>129.20206439036201</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>100.292129245231</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>129.93115431789201</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>148.43875677835101</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>152.499742130931</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>71.148542753675301</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -4704,7 +4704,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>113</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>153.99848852515399</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -4762,39 +4762,36 @@
         <v>139.837479846734</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
-      <c r="B123" s="18">
-        <v>7.5185784084238696</v>
+      <c r="B123" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I123" s="18" t="s">
+      <c r="I123" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="J123" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -4823,7 +4820,7 @@
         <v>155.65398155651201</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -4834,7 +4831,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>91.617455318619193</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>79.873724097196202</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>116</v>
       </c>
@@ -4921,7 +4918,7 @@
         <v>79.4043112339983</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>117</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>95.938597182696498</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -4979,7 +4976,7 @@
         <v>94.412309647315197</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>119</v>
       </c>
@@ -5008,7 +5005,7 @@
         <v>99.739199193270906</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>120</v>
       </c>
@@ -5037,7 +5034,7 @@
         <v>86.696831598546893</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -5066,7 +5063,7 @@
         <v>92.299666078698493</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -5077,7 +5074,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>159</v>
       </c>
@@ -5106,7 +5103,7 @@
         <v>81.880591758500898</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -5135,7 +5132,7 @@
         <v>73.793393527596393</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>124</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>83.221148341758195</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>125</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>80.598600759757801</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>113.464481204877</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>72.450058371865893</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>128</v>
       </c>
@@ -5280,7 +5277,7 @@
         <v>76.216776577132606</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>129</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>89.3570751509709</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>130</v>
       </c>
@@ -5338,7 +5335,7 @@
         <v>95.150134993415804</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>131</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>76.250915833948298</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>132</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>80.266307131214603</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -5425,7 +5422,7 @@
         <v>32.5972302754938</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>39.005055738495102</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>135</v>
       </c>
@@ -5483,7 +5480,7 @@
         <v>62.572895966819203</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -5512,7 +5509,7 @@
         <v>89.159394102139998</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>137</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>92.177549738309807</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>138</v>
       </c>
@@ -5570,7 +5567,7 @@
         <v>74.442265672885199</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>78.975218098697994</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>140</v>
       </c>
@@ -5628,7 +5625,7 @@
         <v>82.996764973683796</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>66.675529629981597</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>142</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>65.261342314435694</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>143</v>
       </c>
@@ -5715,7 +5712,7 @@
         <v>80.375052066764695</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>144</v>
       </c>
@@ -5744,7 +5741,7 @@
         <v>88.169367359294199</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -5773,7 +5770,7 @@
         <v>66.216135766664095</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>61.192559359719198</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -5831,7 +5828,7 @@
         <v>71.959041128225095</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>148</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>88.115416484683493</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>149</v>
       </c>
@@ -5889,7 +5886,7 @@
         <v>66.620798235525996</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>150</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>106.715836572909</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>121.97218495676699</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>88.726253866182702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>79.516120311314197</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>154</v>
       </c>
@@ -6034,7 +6031,7 @@
         <v>84.568795516864995</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>78.002652666268006</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -6092,7 +6089,7 @@
         <v>65.557138504272601</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>85.912643699246999</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>158</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>115.08103715948501</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>94.368801207079997</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>95.753284825986</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>162</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>83.172104597719098</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>163</v>
       </c>
@@ -6266,7 +6263,7 @@
         <v>77.293546385462506</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>164</v>
       </c>
@@ -6295,7 +6292,7 @@
         <v>79.459200726922404</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -6324,7 +6321,7 @@
         <v>79.696017150770899</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>166</v>
       </c>
@@ -6365,17 +6362,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784C1E38-F19B-4F8A-91D8-370B3A0B03D5}">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>178</v>
       </c>
@@ -6390,7 +6387,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -6405,7 +6402,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="22">
         <v>2010</v>
@@ -6428,7 +6425,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -6457,7 +6454,7 @@
         <v>27.886244782230101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -6468,7 +6465,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6494,7 @@
         <v>32.097597647417601</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>21.255288298735199</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -6555,7 +6552,7 @@
         <v>14.0835491000249</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6584,7 +6581,7 @@
         <v>39.549615427076397</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6613,7 +6610,7 @@
         <v>32.349533455211002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>22.2826355573287</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>24.930500596697001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -6700,7 +6697,7 @@
         <v>16.628548330499701</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6729,7 +6726,7 @@
         <v>25.081112687563401</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>45.799924713757598</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>23.410616445644798</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>24.621961632898401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6845,7 +6842,7 @@
         <v>19.306193399258898</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -6874,7 +6871,7 @@
         <v>16.122995797043501</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6903,7 +6900,7 @@
         <v>21.353186665233402</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -6932,7 +6929,7 @@
         <v>23.0775947144176</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -6961,7 +6958,7 @@
         <v>26.3179363221928</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6990,7 +6987,7 @@
         <v>15.572568371600299</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -7019,7 +7016,7 @@
         <v>28.4760373993293</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>31.199085302079901</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -7077,7 +7074,7 @@
         <v>18.489771027537799</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>20.718412799968601</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7135,7 +7132,7 @@
         <v>39.797594171570303</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -7164,7 +7161,7 @@
         <v>18.084355417101001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -7175,7 +7172,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -7204,7 +7201,7 @@
         <v>23.865219275361799</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -7233,7 +7230,7 @@
         <v>28.4648468333694</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7262,7 +7259,7 @@
         <v>23.9821001692472</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>23.289593236799099</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -7320,7 +7317,7 @@
         <v>23.203613964389799</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -7349,7 +7346,7 @@
         <v>24.771894142511801</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -7378,7 +7375,7 @@
         <v>20.522415885595201</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>16.899348688274799</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>24.722702015599701</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -7465,7 +7462,7 @@
         <v>26.141762088424901</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -7494,7 +7491,7 @@
         <v>19.6812955175185</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -7523,7 +7520,7 @@
         <v>23.5239806574622</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>20.6732665625137</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -7581,7 +7578,7 @@
         <v>31.427291686215799</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>24.191251717380101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -7639,7 +7636,7 @@
         <v>19.714959501237701</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -7668,7 +7665,7 @@
         <v>24.279882352116701</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -7697,7 +7694,7 @@
         <v>27.575334393402599</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>19.6761133232636</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -7755,7 +7752,7 @@
         <v>21.847210689945602</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>16.865100244910501</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -7813,7 +7810,7 @@
         <v>25.630907560955901</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>25.842969439940301</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -7871,7 +7868,7 @@
         <v>29.969815445417701</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -7900,7 +7897,7 @@
         <v>21.6083571951661</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -7929,7 +7926,7 @@
         <v>24.644041471843899</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -7958,7 +7955,7 @@
         <v>23.842717705362901</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -7987,7 +7984,7 @@
         <v>20.084759711542301</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -8016,7 +8013,7 @@
         <v>20.679677467687799</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -8045,7 +8042,7 @@
         <v>24.627173800398399</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -8056,7 +8053,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -8085,7 +8082,7 @@
         <v>26.5184159453242</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -8114,7 +8111,7 @@
         <v>29.287022955504</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>32.323148290255801</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>22.548216622504299</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -8201,7 +8198,7 @@
         <v>28.8945201335289</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>31.510232213778799</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>28.4702450424661</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>26.3024237709711</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -8317,7 +8314,7 @@
         <v>25.6358253370806</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -8346,7 +8343,7 @@
         <v>25.861073715879801</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -8375,7 +8372,7 @@
         <v>31.941750241770801</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -8404,7 +8401,7 @@
         <v>24.382788944347102</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -8433,7 +8430,7 @@
         <v>27.3262280658696</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -8444,7 +8441,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>22.757300857359699</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -8502,7 +8499,7 @@
         <v>26.2260628035873</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -8531,7 +8528,7 @@
         <v>22.174062743776599</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -8560,7 +8557,7 @@
         <v>21.529942275100499</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>24.377242536885198</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -8618,7 +8615,7 @@
         <v>27.088056033058599</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -8647,7 +8644,7 @@
         <v>17.216941487422901</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -8676,7 +8673,7 @@
         <v>19.094683170196301</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -8705,7 +8702,7 @@
         <v>26.876425578543401</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>16.369467876571701</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -8763,7 +8760,7 @@
         <v>17.138602089265</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -8792,7 +8789,7 @@
         <v>22.322767649564799</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>20.4975228175132</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -8850,7 +8847,7 @@
         <v>15.314941934233399</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -8879,7 +8876,7 @@
         <v>15.176258835894499</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>19.438870233064499</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -8937,7 +8934,7 @@
         <v>22.7433732611176</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -8966,7 +8963,7 @@
         <v>26.1738248098581</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>16.735000843192498</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -9024,7 +9021,7 @@
         <v>23.143301565815101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -9053,7 +9050,7 @@
         <v>18.695837570515401</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -9082,7 +9079,7 @@
         <v>21.597682235932101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -9111,7 +9108,7 @@
         <v>22.152788767217501</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -9140,7 +9137,7 @@
         <v>27.079774268882201</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -9169,7 +9166,7 @@
         <v>18.114651364122</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -9180,7 +9177,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -9209,7 +9206,7 @@
         <v>28.2833806879745</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>29.818128367641801</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -9267,7 +9264,7 @@
         <v>31.454537764833098</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>28.1716874117141</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>19.383259330305201</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -9354,7 +9351,7 @@
         <v>35.4267291644856</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -9383,7 +9380,7 @@
         <v>26.8188825704955</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -9412,7 +9409,7 @@
         <v>30.8079036867416</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -9441,7 +9438,7 @@
         <v>31.867821561175699</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -9470,7 +9467,7 @@
         <v>34.678379539912399</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -9499,7 +9496,7 @@
         <v>34.103365675093997</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -9528,7 +9525,7 @@
         <v>32.361124884554599</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>105</v>
       </c>
@@ -9557,7 +9554,7 @@
         <v>28.0734959915467</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -9586,7 +9583,7 @@
         <v>23.507561555034599</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -9615,7 +9612,7 @@
         <v>32.006844151265298</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -9644,7 +9641,7 @@
         <v>37.0614742177194</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -9673,7 +9670,7 @@
         <v>32.9962607409093</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>17.359404086099602</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -9713,7 +9710,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>113</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>25.355322469668302</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -9771,39 +9768,36 @@
         <v>26.007520707582898</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
-      <c r="B123" s="18">
-        <v>0.74954263777469299</v>
+      <c r="B123" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I123" s="18" t="s">
+      <c r="I123" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="J123" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -9832,7 +9826,7 @@
         <v>25.2801940078417</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -9843,7 +9837,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -9872,7 +9866,7 @@
         <v>26.121285882821599</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -9901,7 +9895,7 @@
         <v>26.075236121805599</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>116</v>
       </c>
@@ -9930,7 +9924,7 @@
         <v>17.6939726518175</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>117</v>
       </c>
@@ -9959,7 +9953,7 @@
         <v>29.068317355449601</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -9988,7 +9982,7 @@
         <v>27.712210087085499</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>119</v>
       </c>
@@ -10017,7 +10011,7 @@
         <v>33.148574051292897</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>120</v>
       </c>
@@ -10046,7 +10040,7 @@
         <v>24.568952350267601</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -10075,7 +10069,7 @@
         <v>26.667196294445599</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -10086,7 +10080,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>159</v>
       </c>
@@ -10115,7 +10109,7 @@
         <v>32.3646421509278</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -10144,7 +10138,7 @@
         <v>23.1656472048392</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>124</v>
       </c>
@@ -10173,7 +10167,7 @@
         <v>26.0047015226701</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>125</v>
       </c>
@@ -10202,7 +10196,7 @@
         <v>28.679942904487401</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -10231,7 +10225,7 @@
         <v>40.911423264732498</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -10260,7 +10254,7 @@
         <v>25.831611606589998</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>128</v>
       </c>
@@ -10289,7 +10283,7 @@
         <v>26.306279150492799</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>129</v>
       </c>
@@ -10318,7 +10312,7 @@
         <v>27.459893111759499</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>130</v>
       </c>
@@ -10347,7 +10341,7 @@
         <v>49.422642926155802</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>131</v>
       </c>
@@ -10376,7 +10370,7 @@
         <v>22.595969449546299</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>132</v>
       </c>
@@ -10405,7 +10399,7 @@
         <v>21.145920727646601</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -10434,7 +10428,7 @@
         <v>10.076295048228801</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -10463,7 +10457,7 @@
         <v>15.8311433903528</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>135</v>
       </c>
@@ -10492,7 +10486,7 @@
         <v>31.835889965517499</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -10521,7 +10515,7 @@
         <v>80.140668809064294</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>137</v>
       </c>
@@ -10550,7 +10544,7 @@
         <v>25.100473297587499</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>138</v>
       </c>
@@ -10579,7 +10573,7 @@
         <v>27.7020839106147</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -10608,7 +10602,7 @@
         <v>26.910414354634899</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>140</v>
       </c>
@@ -10637,7 +10631,7 @@
         <v>46.767732349933098</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -10666,7 +10660,7 @@
         <v>26.084129824103101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>142</v>
       </c>
@@ -10695,7 +10689,7 @@
         <v>25.403796828591702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>143</v>
       </c>
@@ -10724,7 +10718,7 @@
         <v>22.979161487529598</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>144</v>
       </c>
@@ -10753,7 +10747,7 @@
         <v>37.984443769160201</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -10782,7 +10776,7 @@
         <v>19.714725544255501</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -10811,7 +10805,7 @@
         <v>16.527684505727098</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -10840,7 +10834,7 @@
         <v>23.235362003295101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>148</v>
       </c>
@@ -10869,7 +10863,7 @@
         <v>32.0438812618047</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>149</v>
       </c>
@@ -10898,7 +10892,7 @@
         <v>22.9619585841332</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>150</v>
       </c>
@@ -10927,7 +10921,7 @@
         <v>40.046045216509903</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -10956,7 +10950,7 @@
         <v>48.616017629283</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -10985,7 +10979,7 @@
         <v>33.022008976590399</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -11014,7 +11008,7 @@
         <v>22.557695430549298</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>154</v>
       </c>
@@ -11043,7 +11037,7 @@
         <v>33.378060719562399</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -11072,7 +11066,7 @@
         <v>23.7952340191693</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -11101,7 +11095,7 @@
         <v>24.147896976273099</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -11130,7 +11124,7 @@
         <v>11.049198068475899</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>158</v>
       </c>
@@ -11159,7 +11153,7 @@
         <v>26.6484305356737</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -11188,7 +11182,7 @@
         <v>26.420814587855801</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -11217,7 +11211,7 @@
         <v>26.513031403922898</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>162</v>
       </c>
@@ -11246,7 +11240,7 @@
         <v>25.696985181927101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>163</v>
       </c>
@@ -11275,7 +11269,7 @@
         <v>23.760936638815799</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>164</v>
       </c>
@@ -11304,7 +11298,7 @@
         <v>26.209880488045499</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -11333,7 +11327,7 @@
         <v>25.917501057739599</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="33" t="s">
         <v>166</v>
       </c>
@@ -11379,15 +11373,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="26"/>
-    <col min="2" max="2" width="51.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.7265625" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="51.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>179</v>
       </c>
@@ -11402,7 +11396,7 @@
       <c r="I1" s="50"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="20"/>
       <c r="D2" s="27"/>
@@ -11417,7 +11411,7 @@
       <c r="I2" s="46"/>
       <c r="J2" s="48"/>
     </row>
-    <row r="3" spans="1:10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="22">
         <v>2010</v>
@@ -11440,7 +11434,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11472,7 +11466,7 @@
         <v>16.831428721579002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -11483,7 +11477,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11515,7 +11509,7 @@
         <v>19.226587313764501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -11547,7 +11541,7 @@
         <v>20.662907741429802</v>
       </c>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -11579,7 +11573,7 @@
         <v>8.2148529410228495</v>
       </c>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -11611,7 +11605,7 @@
         <v>23.3197559065223</v>
       </c>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -11643,7 +11637,7 @@
         <v>23.674653376886798</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11675,7 +11669,7 @@
         <v>13.8336123222367</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -11707,7 +11701,7 @@
         <v>15.4794173712679</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -11739,7 +11733,7 @@
         <v>9.4272779042154102</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -11771,7 +11765,7 @@
         <v>18.211845934722501</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -11803,7 +11797,7 @@
         <v>36.483933583634098</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -11835,7 +11829,7 @@
         <v>14.250688070496</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -11867,7 +11861,7 @@
         <v>20.314529029614999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11899,7 +11893,7 @@
         <v>10.965359803242601</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -11931,7 +11925,7 @@
         <v>9.3430286636348896</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -11963,7 +11957,7 @@
         <v>14.548452527091399</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -11995,7 +11989,7 @@
         <v>17.3948148009564</v>
       </c>
     </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -12027,7 +12021,7 @@
         <v>11.1619110578876</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -12059,7 +12053,7 @@
         <v>10.110654257194</v>
       </c>
     </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -12091,7 +12085,7 @@
         <v>14.1135369701092</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -12123,7 +12117,7 @@
         <v>19.4510002189873</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -12155,7 +12149,7 @@
         <v>10.861579180166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -12187,7 +12181,7 @@
         <v>14.040906743358301</v>
       </c>
     </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -12219,7 +12213,7 @@
         <v>19.128389049528501</v>
       </c>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -12251,7 +12245,7 @@
         <v>11.7215802043486</v>
       </c>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -12262,7 +12256,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -12294,7 +12288,7 @@
         <v>20.432759441004801</v>
       </c>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -12326,7 +12320,7 @@
         <v>22.592172747891599</v>
       </c>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +12352,7 @@
         <v>20.8880744348711</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -12390,7 +12384,7 @@
         <v>19.692324436693799</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -12422,7 +12416,7 @@
         <v>19.151042293968398</v>
       </c>
     </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -12454,7 +12448,7 @@
         <v>19.772384831442199</v>
       </c>
     </row>
-    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -12486,7 +12480,7 @@
         <v>16.968742726373499</v>
       </c>
     </row>
-    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -12518,7 +12512,7 @@
         <v>13.9398619913455</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -12550,7 +12544,7 @@
         <v>20.238296800309399</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +12576,7 @@
         <v>23.304918160447698</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -12614,7 +12608,7 @@
         <v>19.209034682763999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -12646,7 +12640,7 @@
         <v>20.554286774039099</v>
       </c>
     </row>
-    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -12678,7 +12672,7 @@
         <v>18.664232695302001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -12710,7 +12704,7 @@
         <v>24.876371672296301</v>
       </c>
     </row>
-    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -12742,7 +12736,7 @@
         <v>18.674654274930901</v>
       </c>
     </row>
-    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -12774,7 +12768,7 @@
         <v>18.2449372764471</v>
       </c>
     </row>
-    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -12806,7 +12800,7 @@
         <v>22.090312288771099</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -12838,7 +12832,7 @@
         <v>23.963995513153598</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -12870,7 +12864,7 @@
         <v>17.9599106996532</v>
       </c>
     </row>
-    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -12902,7 +12896,7 @@
         <v>19.712675185865599</v>
       </c>
     </row>
-    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -12934,7 +12928,7 @@
         <v>12.6922896863717</v>
       </c>
     </row>
-    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -12966,7 +12960,7 @@
         <v>21.005741956959799</v>
       </c>
     </row>
-    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -12998,7 +12992,7 @@
         <v>21.439099268868301</v>
       </c>
     </row>
-    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>24.009917654363601</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -13062,7 +13056,7 @@
         <v>17.235821214512701</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -13094,7 +13088,7 @@
         <v>21.4135802637892</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -13126,7 +13120,7 @@
         <v>20.062747309419301</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -13158,7 +13152,7 @@
         <v>19.772585352203901</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -13190,7 +13184,7 @@
         <v>18.681357505299498</v>
       </c>
     </row>
-    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -13222,7 +13216,7 @@
         <v>20.818366679607099</v>
       </c>
     </row>
-    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -13233,7 +13227,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="15"/>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -13265,7 +13259,7 @@
         <v>20.9038176124023</v>
       </c>
     </row>
-    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -13297,7 +13291,7 @@
         <v>21.894131184060999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -13329,7 +13323,7 @@
         <v>23.914483435311201</v>
       </c>
     </row>
-    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -13361,7 +13355,7 @@
         <v>19.1665651079851</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -13393,7 +13387,7 @@
         <v>23.4947964475211</v>
       </c>
     </row>
-    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -13425,7 +13419,7 @@
         <v>25.8391650767234</v>
       </c>
     </row>
-    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -13457,7 +13451,7 @@
         <v>23.360749411399599</v>
       </c>
     </row>
-    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -13489,7 +13483,7 @@
         <v>19.831134784596198</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -13521,7 +13515,7 @@
         <v>19.9334676699889</v>
       </c>
     </row>
-    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -13553,7 +13547,7 @@
         <v>19.710288857855801</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -13585,7 +13579,7 @@
         <v>27.8368736605435</v>
       </c>
     </row>
-    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -13617,7 +13611,7 @@
         <v>19.1724835505144</v>
       </c>
     </row>
-    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -13649,7 +13643,7 @@
         <v>21.918536166455802</v>
       </c>
     </row>
-    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="33"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -13660,7 +13654,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -13692,7 +13686,7 @@
         <v>17.6494678148281</v>
       </c>
     </row>
-    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -13724,7 +13718,7 @@
         <v>22.747132443739002</v>
       </c>
     </row>
-    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -13756,7 +13750,7 @@
         <v>15.3632914111797</v>
       </c>
     </row>
-    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -13788,7 +13782,7 @@
         <v>17.3713242743232</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -13820,7 +13814,7 @@
         <v>20.322034885659999</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -13852,7 +13846,7 @@
         <v>21.365975923335</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -13884,7 +13878,7 @@
         <v>13.576590786738301</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -13916,7 +13910,7 @@
         <v>14.8141198331297</v>
       </c>
     </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -13948,7 +13942,7 @@
         <v>16.3772996955826</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -13980,7 +13974,7 @@
         <v>11.875906186510999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -14012,7 +14006,7 @@
         <v>13.945502307359201</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -14044,7 +14038,7 @@
         <v>13.620624491691199</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -14076,7 +14070,7 @@
         <v>13.792500668527699</v>
       </c>
     </row>
-    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -14108,7 +14102,7 @@
         <v>11.925470533308401</v>
       </c>
     </row>
-    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -14140,7 +14134,7 @@
         <v>9.9785503315651702</v>
       </c>
     </row>
-    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -14172,7 +14166,7 @@
         <v>13.456701433430201</v>
       </c>
     </row>
-    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -14204,7 +14198,7 @@
         <v>16.128328915209501</v>
       </c>
     </row>
-    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -14236,7 +14230,7 @@
         <v>18.5044223775167</v>
       </c>
     </row>
-    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -14268,7 +14262,7 @@
         <v>12.238918300956399</v>
       </c>
     </row>
-    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -14300,7 +14294,7 @@
         <v>17.0314492965616</v>
       </c>
     </row>
-    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -14332,7 +14326,7 @@
         <v>16.261064878227401</v>
       </c>
     </row>
-    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -14364,7 +14358,7 @@
         <v>15.546614351701701</v>
       </c>
     </row>
-    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -14396,7 +14390,7 @@
         <v>14.7077783033463</v>
       </c>
     </row>
-    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -14428,7 +14422,7 @@
         <v>21.5778118382702</v>
       </c>
     </row>
-    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -14460,7 +14454,7 @@
         <v>13.976917801888099</v>
       </c>
     </row>
-    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="33"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
@@ -14471,7 +14465,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -14503,7 +14497,7 @@
         <v>20.0309053526938</v>
       </c>
     </row>
-    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -14535,7 +14529,7 @@
         <v>21.621480580567901</v>
       </c>
     </row>
-    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -14567,7 +14561,7 @@
         <v>22.0311738817229</v>
       </c>
     </row>
-    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -14599,7 +14593,7 @@
         <v>19.502828472033599</v>
       </c>
     </row>
-    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -14631,7 +14625,7 @@
         <v>13.5162185149452</v>
       </c>
     </row>
-    <row r="107" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -14663,7 +14657,7 @@
         <v>27.163379654996799</v>
       </c>
     </row>
-    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -14695,7 +14689,7 @@
         <v>19.7148119345356</v>
       </c>
     </row>
-    <row r="109" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -14727,7 +14721,7 @@
         <v>23.5028906169936</v>
       </c>
     </row>
-    <row r="110" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -14759,7 +14753,7 @@
         <v>22.878113956553801</v>
       </c>
     </row>
-    <row r="111" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -14791,7 +14785,7 @@
         <v>16.600560740711899</v>
       </c>
     </row>
-    <row r="112" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -14823,7 +14817,7 @@
         <v>24.4576576560417</v>
       </c>
     </row>
-    <row r="113" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -14855,7 +14849,7 @@
         <v>24.583470770103801</v>
       </c>
     </row>
-    <row r="114" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -14887,7 +14881,7 @@
         <v>20.765790666563401</v>
       </c>
     </row>
-    <row r="115" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -14919,7 +14913,7 @@
         <v>16.546457175541999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -14951,7 +14945,7 @@
         <v>22.642604724333701</v>
       </c>
     </row>
-    <row r="117" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -14983,7 +14977,7 @@
         <v>25.644105755883999</v>
       </c>
     </row>
-    <row r="118" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -15015,7 +15009,7 @@
         <v>22.798800264425001</v>
       </c>
     </row>
-    <row r="119" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -15047,7 +15041,7 @@
         <v>12.362939727383599</v>
       </c>
     </row>
-    <row r="120" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="33"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -15058,7 +15052,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -15090,7 +15084,7 @@
         <v>23.192117630883999</v>
       </c>
     </row>
-    <row r="122" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -15122,7 +15116,7 @@
         <v>21.694893945665999</v>
       </c>
     </row>
-    <row r="123" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -15135,26 +15129,26 @@
       <c r="D123" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H123" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I123" s="18" t="s">
+      <c r="I123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J123" s="18" t="s">
+      <c r="J123" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -15186,7 +15180,7 @@
         <v>23.363220597852301</v>
       </c>
     </row>
-    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="33"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -15197,7 +15191,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="15"/>
     </row>
-    <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -15229,7 +15223,7 @@
         <v>12.5437932748973</v>
       </c>
     </row>
-    <row r="127" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -15261,7 +15255,7 @@
         <v>15.2297754699773</v>
       </c>
     </row>
-    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -15293,7 +15287,7 @@
         <v>8.8063582188312104</v>
       </c>
     </row>
-    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -15325,7 +15319,7 @@
         <v>18.157711078995199</v>
       </c>
     </row>
-    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -15357,7 +15351,7 @@
         <v>12.316023819692401</v>
       </c>
     </row>
-    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -15389,7 +15383,7 @@
         <v>18.744396455931501</v>
       </c>
     </row>
-    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -15421,7 +15415,7 @@
         <v>14.4323091367116</v>
       </c>
     </row>
-    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -15453,7 +15447,7 @@
         <v>18.4575209006988</v>
       </c>
     </row>
-    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="33"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
@@ -15464,7 +15458,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -15496,7 +15490,7 @@
         <v>14.600586993335</v>
       </c>
     </row>
-    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -15528,7 +15522,7 @@
         <v>11.844095818368899</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -15560,7 +15554,7 @@
         <v>14.252506513362899</v>
       </c>
     </row>
-    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -15592,7 +15586,7 @@
         <v>12.0549109292423</v>
       </c>
     </row>
-    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -15624,7 +15618,7 @@
         <v>21.287591087482902</v>
       </c>
     </row>
-    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -15656,7 +15650,7 @@
         <v>12.7938225402463</v>
       </c>
     </row>
-    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -15688,7 +15682,7 @@
         <v>13.6218319599426</v>
       </c>
     </row>
-    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -15720,7 +15714,7 @@
         <v>16.399317389230699</v>
       </c>
     </row>
-    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -15752,7 +15746,7 @@
         <v>17.672702808604001</v>
       </c>
     </row>
-    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -15784,7 +15778,7 @@
         <v>10.950163630931</v>
       </c>
     </row>
-    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -15816,7 +15810,7 @@
         <v>12.823937564668</v>
       </c>
     </row>
-    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -15848,7 +15842,7 @@
         <v>5.2031365010485704</v>
       </c>
     </row>
-    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -15880,7 +15874,7 @@
         <v>6.9031842629838502</v>
       </c>
     </row>
-    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -15912,7 +15906,7 @@
         <v>10.8200090074315</v>
       </c>
     </row>
-    <row r="149" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -15944,7 +15938,7 @@
         <v>18.4651783323513</v>
       </c>
     </row>
-    <row r="150" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -15976,7 +15970,7 @@
         <v>12.467669673674999</v>
       </c>
     </row>
-    <row r="151" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -16008,7 +16002,7 @@
         <v>12.687701133222101</v>
       </c>
     </row>
-    <row r="152" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -16040,7 +16034,7 @@
         <v>12.865538793888501</v>
       </c>
     </row>
-    <row r="153" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -16072,7 +16066,7 @@
         <v>15.282767424336701</v>
       </c>
     </row>
-    <row r="154" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -16104,7 +16098,7 @@
         <v>11.992566716130799</v>
       </c>
     </row>
-    <row r="155" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -16136,7 +16130,7 @@
         <v>12.136012732387099</v>
       </c>
     </row>
-    <row r="156" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -16168,7 +16162,7 @@
         <v>13.0445141642392</v>
       </c>
     </row>
-    <row r="157" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -16200,7 +16194,7 @@
         <v>15.113342227446999</v>
       </c>
     </row>
-    <row r="158" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -16232,7 +16226,7 @@
         <v>9.9777511436939292</v>
       </c>
     </row>
-    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -16264,7 +16258,7 @@
         <v>10.464403113327</v>
       </c>
     </row>
-    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -16296,7 +16290,7 @@
         <v>11.9140075861391</v>
       </c>
     </row>
-    <row r="161" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -16328,7 +16322,7 @@
         <v>16.360395404393302</v>
       </c>
     </row>
-    <row r="162" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -16360,7 +16354,7 @@
         <v>11.705048649381901</v>
       </c>
     </row>
-    <row r="163" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -16392,7 +16386,7 @@
         <v>16.3976120008859</v>
       </c>
     </row>
-    <row r="164" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -16424,7 +16418,7 @@
         <v>25.175237106506799</v>
       </c>
     </row>
-    <row r="165" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -16456,7 +16450,7 @@
         <v>17.180160424016201</v>
       </c>
     </row>
-    <row r="166" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -16488,7 +16482,7 @@
         <v>11.4671457825582</v>
       </c>
     </row>
-    <row r="167" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -16520,7 +16514,7 @@
         <v>14.6480741996989</v>
       </c>
     </row>
-    <row r="168" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -16552,7 +16546,7 @@
         <v>13.4640579730806</v>
       </c>
     </row>
-    <row r="169" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -16584,7 +16578,7 @@
         <v>9.0486718285762304</v>
       </c>
     </row>
-    <row r="170" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -16616,7 +16610,7 @@
         <v>14.4425609068768</v>
       </c>
     </row>
-    <row r="171" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -16648,7 +16642,7 @@
         <v>16.3924964347909</v>
       </c>
     </row>
-    <row r="172" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -16680,7 +16674,7 @@
         <v>16.1045862711774</v>
       </c>
     </row>
-    <row r="173" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -16712,7 +16706,7 @@
         <v>14.5543330605955</v>
       </c>
     </row>
-    <row r="174" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -16744,7 +16738,7 @@
         <v>13.283355187276401</v>
       </c>
     </row>
-    <row r="175" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -16776,7 +16770,7 @@
         <v>13.5314841249363</v>
       </c>
     </row>
-    <row r="176" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -16808,7 +16802,7 @@
         <v>12.9961977229355</v>
       </c>
     </row>
-    <row r="177" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -16840,7 +16834,7 @@
         <v>12.698369441488699</v>
       </c>
     </row>
-    <row r="178" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -16888,13 +16882,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
-    <col min="2" max="9" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>180</v>
       </c>
@@ -16909,7 +16903,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="27"/>
       <c r="D2" s="47" t="s">
@@ -16923,7 +16917,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="22">
         <v>2010</v>
@@ -16946,7 +16940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>174</v>
       </c>
@@ -16959,7 +16953,7 @@
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>167</v>
       </c>
@@ -16988,7 +16982,7 @@
         <v>110.332005414311</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
@@ -17017,7 +17011,7 @@
         <v>132.32063644207901</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
@@ -17046,7 +17040,7 @@
         <v>133.03119746462801</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>58</v>
       </c>
@@ -17075,7 +17069,7 @@
         <v>128.69039077477299</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>84</v>
       </c>
@@ -17104,7 +17098,7 @@
         <v>109.947948303198</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>102</v>
       </c>
@@ -17133,7 +17127,7 @@
         <v>121.848379213748</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>113</v>
       </c>
@@ -17162,7 +17156,7 @@
         <v>154.742593236266</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>121</v>
       </c>
@@ -17191,7 +17185,7 @@
         <v>92.690600607373298</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>159</v>
       </c>
@@ -17220,7 +17214,7 @@
         <v>82.8517008614036</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -17231,7 +17225,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>175</v>
       </c>
@@ -17244,7 +17238,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>167</v>
       </c>
@@ -17273,7 +17267,7 @@
         <v>28.1167328817737</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>4</v>
       </c>
@@ -17302,7 +17296,7 @@
         <v>32.289229079623198</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>34</v>
       </c>
@@ -17331,7 +17325,7 @@
         <v>24.025845607706099</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>58</v>
       </c>
@@ -17360,7 +17354,7 @@
         <v>26.725553219604599</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>84</v>
       </c>
@@ -17389,7 +17383,7 @@
         <v>22.940743828458601</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>102</v>
       </c>
@@ -17418,7 +17412,7 @@
         <v>28.514823502789</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>113</v>
       </c>
@@ -17447,7 +17441,7 @@
         <v>25.495622018013002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>121</v>
       </c>
@@ -17476,7 +17470,7 @@
         <v>26.3506493418056</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>159</v>
       </c>
@@ -17505,7 +17499,7 @@
         <v>32.773001144513302</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -17516,7 +17510,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>176</v>
       </c>
@@ -17529,7 +17523,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>167</v>
       </c>
@@ -17558,7 +17552,7 @@
         <v>16.975704120628698</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
@@ -17587,7 +17581,7 @@
         <v>19.357600161545701</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
@@ -17616,7 +17610,7 @@
         <v>20.5798841929617</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17639,7 @@
         <v>21.0916853054912</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>84</v>
       </c>
@@ -17674,7 +17668,7 @@
         <v>17.7843649621718</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>102</v>
       </c>
@@ -17703,7 +17697,7 @@
         <v>20.230801869527198</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>113</v>
       </c>
@@ -17732,7 +17726,7 @@
         <v>23.319299643770201</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>121</v>
       </c>
@@ -17761,7 +17755,7 @@
         <v>12.671684002351901</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>159</v>
       </c>
@@ -17806,13 +17800,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>181</v>
       </c>
@@ -17827,7 +17821,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="27"/>
       <c r="D2" s="47" t="s">
@@ -17841,7 +17835,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="22">
         <v>2010</v>
@@ -17864,7 +17858,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>174</v>
       </c>
@@ -17877,7 +17871,7 @@
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>167</v>
       </c>
@@ -17906,7 +17900,7 @@
         <v>107.85085133122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
@@ -17935,7 +17929,7 @@
         <v>129.604766357751</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
@@ -17964,7 +17958,7 @@
         <v>131.098269972667</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>58</v>
       </c>
@@ -17993,7 +17987,7 @@
         <v>126.29844453555501</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>84</v>
       </c>
@@ -18022,7 +18016,7 @@
         <v>108.463083188179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>102</v>
       </c>
@@ -18051,7 +18045,7 @@
         <v>119.393625361679</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>113</v>
       </c>
@@ -18080,7 +18074,7 @@
         <v>152.98308746000299</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>121</v>
       </c>
@@ -18109,7 +18103,7 @@
         <v>89.394361493897705</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>159</v>
       </c>
@@ -18138,7 +18132,7 @@
         <v>80.828487535887007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -18149,7 +18143,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>175</v>
       </c>
@@ -18162,7 +18156,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>167</v>
       </c>
@@ -18191,7 +18185,7 @@
         <v>27.3891159507398</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>4</v>
       </c>
@@ -18220,7 +18214,7 @@
         <v>31.568998106886699</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>34</v>
       </c>
@@ -18249,7 +18243,7 @@
         <v>23.5406628270499</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>58</v>
       </c>
@@ -18278,7 +18272,7 @@
         <v>26.142464103872001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>84</v>
       </c>
@@ -18307,7 +18301,7 @@
         <v>22.528664185052499</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>102</v>
       </c>
@@ -18336,7 +18330,7 @@
         <v>27.898960577127401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>113</v>
       </c>
@@ -18365,7 +18359,7 @@
         <v>25.0327051891318</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>121</v>
       </c>
@@ -18394,7 +18388,7 @@
         <v>25.3259715493637</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>159</v>
       </c>
@@ -18423,7 +18417,7 @@
         <v>31.8986101678253</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -18434,7 +18428,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>176</v>
       </c>
@@ -18447,7 +18441,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>167</v>
       </c>
@@ -18476,7 +18470,7 @@
         <v>16.582435448226601</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
@@ -18505,7 +18499,7 @@
         <v>18.953536665818</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
@@ -18534,7 +18528,7 @@
         <v>20.226876807124601</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>58</v>
       </c>
@@ -18563,7 +18557,7 @@
         <v>20.6599012515324</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>84</v>
       </c>
@@ -18592,7 +18586,7 @@
         <v>17.513157666755799</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>102</v>
       </c>
@@ -18621,7 +18615,7 @@
         <v>19.788733296228902</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>113</v>
       </c>
@@ -18650,7 +18644,7 @@
         <v>22.996701353681299</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>121</v>
       </c>
@@ -18679,7 +18673,7 @@
         <v>12.250534301618501</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>159</v>
       </c>
